--- a/Resultados/Material + Ano/ResNet/Tentativa 1/Com Tentativa 1 - Material.xlsx
+++ b/Resultados/Material + Ano/ResNet/Tentativa 1/Com Tentativa 1 - Material.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano\ResNet\Tentativa 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F7848E-A8D5-4E15-90A6-B03F520C0E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5E860C-E7DE-44EB-BEFF-BC3EA6A10431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Epoch</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>1 (Material, )</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -276,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +301,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,7 +424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -539,11 +542,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,6 +561,94 @@
     <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -636,94 +723,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -857,7 +856,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F536D39-BCCF-CFA2-9C6E-DAEE8709114A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF69358-A5F6-2099-AC39-1410672353D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -912,7 +911,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8CFD44-F4A9-8789-DE1A-FE7C69778745}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F18A19-C3FE-9035-DF86-E35C64B5E539}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -967,7 +966,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E7B1014-A12C-E145-64A5-1ECE8F58C11F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE046583-F4BB-9824-117C-CCC286F4BD3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1021,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8DC2032-DBDD-7005-CD6D-1141280DA721}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C81464-112E-4EA7-D6C9-AF5C4818E5B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1077,7 +1076,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5801B59F-372F-EB83-58A1-545E83CB5699}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72BAA5DE-323B-9EA0-F37A-5A8F11395509}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1132,7 +1131,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2767D4F7-2648-293C-0B0A-A4E8765D0DA7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EF1E16-2335-703C-1CD7-89CAEA4884C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1187,7 +1186,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F46CDD30-7521-C7EF-4EA2-0205859350BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A59419E-54C7-6617-1151-860DB3C6EEC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1227,23 +1226,23 @@
   <autoFilter ref="A1:J6" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="8">
       <calculatedColumnFormula>'Matriz Confusão 2'!H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="7">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="6">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1572,7 +1571,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1602,17 +1601,17 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="47">
-        <v>16.682170867919918</v>
-      </c>
-      <c r="C2" s="48">
-        <v>0.78594928979873657</v>
+      <c r="B2" s="2">
+        <v>18.103298187255859</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.78614282608032227</v>
       </c>
       <c r="D2" s="2">
-        <v>10.659807205200201</v>
+        <v>10.918642044067379</v>
       </c>
       <c r="E2" s="2">
-        <v>0.79379844665527344</v>
+        <v>0.81550389528274536</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1620,16 +1619,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>9.3888750076293945</v>
+        <v>11.95698356628418</v>
       </c>
       <c r="C3" s="2">
-        <v>0.853493332862854</v>
-      </c>
-      <c r="D3" s="48">
-        <v>9.7732210159301793</v>
+        <v>0.83859103918075562</v>
+      </c>
+      <c r="D3" s="2">
+        <v>13.050765037536619</v>
       </c>
       <c r="E3" s="2">
-        <v>0.82790696620941162</v>
+        <v>0.85271316766738892</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1637,13 +1636,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>15.0443000793457</v>
+        <v>16.075151443481449</v>
       </c>
       <c r="C4" s="2">
-        <v>0.84304237365722656</v>
+        <v>0.83201086521148682</v>
       </c>
       <c r="D4" s="2">
-        <v>25.038455963134769</v>
+        <v>27.576784133911129</v>
       </c>
       <c r="E4" s="2">
         <v>0.85891473293304443</v>
@@ -1654,16 +1653,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>12.11360454559326</v>
+        <v>7.9112949371337891</v>
       </c>
       <c r="C5" s="2">
-        <v>0.86007356643676758</v>
-      </c>
-      <c r="D5" s="47">
-        <v>25.36898231506348</v>
+        <v>0.89045870304107666</v>
+      </c>
+      <c r="D5" s="2">
+        <v>21.313421249389648</v>
       </c>
       <c r="E5" s="2">
-        <v>0.86356586217880249</v>
+        <v>0.86821705102920532</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1671,16 +1670,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>5.205345630645752</v>
+        <v>2.2892951965332031</v>
       </c>
       <c r="C6" s="2">
-        <v>0.90981227159500122</v>
+        <v>0.93497192859649658</v>
       </c>
       <c r="D6" s="2">
-        <v>21.967300415039059</v>
+        <v>22.55461502075195</v>
       </c>
       <c r="E6" s="2">
-        <v>0.86356586217880249</v>
+        <v>0.87441861629486084</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1688,13 +1687,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>1.946480870246887</v>
+        <v>1.056615352630615</v>
       </c>
       <c r="C7" s="2">
-        <v>0.94735825061798096</v>
+        <v>0.95800268650054932</v>
       </c>
       <c r="D7" s="2">
-        <v>25.33234977722168</v>
+        <v>28.505952835083011</v>
       </c>
       <c r="E7" s="2">
         <v>0.86976742744445801</v>
@@ -1705,16 +1704,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1.486925482749939</v>
+        <v>1.4434182643890381</v>
       </c>
       <c r="C8" s="2">
-        <v>0.95664793252944946</v>
+        <v>0.96226048469543457</v>
       </c>
       <c r="D8" s="2">
-        <v>22.27250862121582</v>
+        <v>20.064155578613281</v>
       </c>
       <c r="E8" s="2">
-        <v>0.86821705102920532</v>
+        <v>0.86976742744445801</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1722,16 +1721,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>1.722031950950623</v>
+        <v>2.2330248355865479</v>
       </c>
       <c r="C9" s="2">
-        <v>0.95626085996627808</v>
+        <v>0.94522935152053833</v>
       </c>
       <c r="D9" s="2">
-        <v>15.3460693359375</v>
-      </c>
-      <c r="E9" s="47">
-        <v>0.87131780385971069</v>
+        <v>12.99958324432373</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.86821705102920532</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1739,56 +1738,56 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>1.859768271446228</v>
+        <v>1.6425919532775879</v>
       </c>
       <c r="C10" s="2">
-        <v>0.94948714971542358</v>
+        <v>0.95219665765762329</v>
       </c>
       <c r="D10" s="2">
-        <v>13.601340293884279</v>
+        <v>15.149733543396</v>
       </c>
       <c r="E10" s="2">
-        <v>0.78914725780487061</v>
+        <v>0.75038760900497437</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="48">
-        <v>0.79718124866485596</v>
-      </c>
-      <c r="C11" s="47">
-        <v>0.97619509696960449</v>
+      <c r="B11" s="2">
+        <v>1.526310920715332</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.96361523866653442</v>
       </c>
       <c r="D11" s="2">
-        <v>17.500345230102539</v>
-      </c>
-      <c r="E11" s="48">
-        <v>0.70852714776992798</v>
+        <v>12.58585739135742</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.85271316766738892</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="50">
-        <v>13.8674259185791</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="B12" s="48">
+        <v>10.602006912231399</v>
+      </c>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="50">
-        <v>0.74343121051788297</v>
-      </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="B13" s="48">
+        <v>0.87789797782897905</v>
+      </c>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1796,19 +1795,19 @@
       </c>
       <c r="B14" s="5">
         <f>MIN(B2:B11)</f>
-        <v>0.79718124866485596</v>
+        <v>1.056615352630615</v>
       </c>
       <c r="C14" s="5">
         <f>MIN(C2:C11)</f>
-        <v>0.78594928979873657</v>
+        <v>0.78614282608032227</v>
       </c>
       <c r="D14" s="5">
         <f>MIN(D2:D11)</f>
-        <v>9.7732210159301793</v>
+        <v>10.918642044067379</v>
       </c>
       <c r="E14" s="5">
         <f>MIN(E2:E11)</f>
-        <v>0.70852714776992798</v>
+        <v>0.75038760900497437</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1817,19 +1816,19 @@
       </c>
       <c r="B15" s="6">
         <f>MAX(B2:B11)</f>
-        <v>16.682170867919918</v>
+        <v>18.103298187255859</v>
       </c>
       <c r="C15" s="6">
         <f>MAX(C2:C11)</f>
-        <v>0.97619509696960449</v>
+        <v>0.96361523866653442</v>
       </c>
       <c r="D15" s="6">
         <f>MAX(D2:D11)</f>
-        <v>25.36898231506348</v>
+        <v>28.505952835083011</v>
       </c>
       <c r="E15" s="6">
         <f>MAX(E2:E11)</f>
-        <v>0.87131780385971069</v>
+        <v>0.87441861629486084</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1838,7 +1837,7 @@
       </c>
       <c r="B16">
         <f>INDEX($A$2:$A$11,MATCH(B14,B2:B11,0))</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <f>INDEX($A$2:$A$11,MATCH(C14,C2:C11,0))</f>
@@ -1846,11 +1845,11 @@
       </c>
       <c r="D16">
         <f>INDEX($A$2:$A$11,MATCH(D14,D2:D11,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <f>INDEX($A$2:$A$11,MATCH(E14,E2:E11,0))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1867,11 +1866,11 @@
       </c>
       <c r="D17">
         <f>INDEX($A$2:$A$11,MATCH(D15,D2:D11,0))</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <f>INDEX($A$2:$A$11,MATCH(E15,E2:E11,0))</f>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1906,7 +1905,7 @@
   <dimension ref="N1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1927,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="18">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="3" spans="14:15" x14ac:dyDescent="0.35">
@@ -1935,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="18">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="14:15" x14ac:dyDescent="0.35">
@@ -1943,7 +1942,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="18">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="14:15" x14ac:dyDescent="0.35">
@@ -1951,7 +1950,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="42">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="14:15" x14ac:dyDescent="0.35">
@@ -1959,14 +1958,12 @@
         <v>4</v>
       </c>
       <c r="O6" s="42">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N7"/>
-      <c r="O7" t="s">
-        <v>46</v>
-      </c>
+      <c r="O7"/>
     </row>
     <row r="8" spans="14:15" x14ac:dyDescent="0.35">
       <c r="N8"/>
@@ -2127,9 +2124,7 @@
   <sheetPr codeName="Folha2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -2144,7 +2139,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2157,10 +2152,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4733B8BE-9A12-402E-83C5-F44A953F201E}">
   <sheetPr codeName="Folha4"/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2169,16 +2164,16 @@
     <col min="2" max="2" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C1" s="51" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C1" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C2" s="37">
         <v>0</v>
       </c>
@@ -2195,8 +2190,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="str">
+    <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
@@ -2204,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -2213,18 +2208,21 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <f>SUM(C3:G3)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="52"/>
+      <c r="J3" s="47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="50"/>
       <c r="B4" s="41">
         <v>1</v>
       </c>
@@ -2238,18 +2236,21 @@
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H7" si="0">SUM(C4:G4)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52"/>
+      <c r="J4" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="50"/>
       <c r="B5" s="41">
         <v>2</v>
       </c>
@@ -2263,18 +2264,21 @@
         <v>4</v>
       </c>
       <c r="F5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="J5" s="47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="50"/>
       <c r="B6" s="41">
         <v>3</v>
       </c>
@@ -2288,18 +2292,21 @@
         <v>0</v>
       </c>
       <c r="F6" s="38">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="52"/>
+      <c r="J6" s="47">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="50"/>
       <c r="B7" s="41">
         <v>4</v>
       </c>
@@ -2313,20 +2320,23 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="G7" s="38">
-        <v>437</v>
+        <v>546</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
         <v>563</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="J7" s="47">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C8">
         <f>SUM(C3:C7)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:G8" si="1">SUM(D3:D7)</f>
@@ -2338,11 +2348,11 @@
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>461</v>
+        <v>597</v>
       </c>
       <c r="H8">
         <f>SUM(H3:H7)</f>
@@ -2365,9 +2375,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB454C8-93BE-43D4-99C2-717E269EE6C9}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2414,27 +2424,28 @@
       <c r="K1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="M1" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="43">
+      <c r="D2" s="23">
         <f>B2/SUM(B2:B6)</f>
-        <v>0.25</v>
-      </c>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E2" s="43"/>
       <c r="F2" s="25" t="str">
         <f>VLOOKUP(C2,$I$1:$K$6,2,FALSE)</f>
         <v>Alvenaria</v>
@@ -2449,7 +2460,7 @@
       <c r="K2" s="21"/>
       <c r="M2" s="18">
         <f>B2+B8+B14+B20+B26</f>
-        <v>481</v>
+        <v>568</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>28</v>
@@ -2459,11 +2470,11 @@
       </c>
       <c r="P2" s="28">
         <f>M2/O2</f>
-        <v>0.74343122102009274</v>
+        <v>0.87789799072642971</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="52"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="18">
         <v>0</v>
       </c>
@@ -2508,7 +2519,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="52"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="18">
         <v>0</v>
       </c>
@@ -2553,9 +2564,9 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="52"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="18">
         <v>3</v>
@@ -2566,7 +2577,7 @@
       </c>
       <c r="E5" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>67%</v>
+        <v>42%</v>
       </c>
       <c r="F5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -2598,9 +2609,9 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="52"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="18">
         <v>4</v>
@@ -2611,7 +2622,7 @@
       </c>
       <c r="E6" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>8%</v>
+        <v>17%</v>
       </c>
       <c r="F6" s="26" t="str">
         <f t="shared" si="0"/>
@@ -2646,7 +2657,7 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="50" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="22">
@@ -2655,11 +2666,11 @@
       <c r="C8" s="22">
         <v>1</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="43">
+      <c r="D8" s="23">
         <f>B8/SUM(B8:B12)</f>
         <v>0.2</v>
       </c>
+      <c r="E8" s="43"/>
       <c r="F8" s="25" t="str">
         <f>VLOOKUP(C8,$I$1:$K$6,2,FALSE)</f>
         <v>Aço</v>
@@ -2670,7 +2681,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="52"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="18">
         <v>1</v>
       </c>
@@ -2695,7 +2706,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="52"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="18">
         <v>0</v>
       </c>
@@ -2720,9 +2731,9 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="52"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="18">
         <v>3</v>
@@ -2733,7 +2744,7 @@
       </c>
       <c r="E11" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>60%</v>
+        <v>40%</v>
       </c>
       <c r="F11" s="26" t="str">
         <f t="shared" si="6"/>
@@ -2745,9 +2756,9 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="52"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="18">
         <v>4</v>
@@ -2758,7 +2769,7 @@
       </c>
       <c r="E12" s="19" t="str">
         <f t="shared" si="8"/>
-        <v>0%</v>
+        <v>20%</v>
       </c>
       <c r="F12" s="26" t="str">
         <f t="shared" si="6"/>
@@ -2770,7 +2781,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="22">
@@ -2779,11 +2790,11 @@
       <c r="C14" s="22">
         <v>2</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="43">
+      <c r="D14" s="23">
         <f>B14/SUM(B14:B18)</f>
         <v>0.4</v>
       </c>
+      <c r="E14" s="43"/>
       <c r="F14" s="25" t="str">
         <f>VLOOKUP(C14,$I$1:$K$6,2,FALSE)</f>
         <v>Aço</v>
@@ -2794,7 +2805,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="52"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="18">
         <v>0</v>
       </c>
@@ -2819,7 +2830,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="52"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="18">
         <v>0</v>
       </c>
@@ -2844,9 +2855,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="52"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" s="18">
         <v>3</v>
@@ -2857,7 +2868,7 @@
       </c>
       <c r="E17" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>10%</v>
+        <v>0%</v>
       </c>
       <c r="F17" s="26" t="str">
         <f t="shared" si="10"/>
@@ -2869,9 +2880,9 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="52"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="18">
         <v>4</v>
@@ -2882,7 +2893,7 @@
       </c>
       <c r="E18" s="19" t="str">
         <f t="shared" si="12"/>
-        <v>50%</v>
+        <v>60%</v>
       </c>
       <c r="F18" s="26" t="str">
         <f t="shared" si="10"/>
@@ -2894,20 +2905,20 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="50" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="22">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="C20" s="22">
         <v>3</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="43">
+      <c r="D20" s="23">
         <f>B20/SUM(B20:B24)</f>
-        <v>0.63157894736842102</v>
-      </c>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="E20" s="43"/>
       <c r="F20" s="25" t="str">
         <f>VLOOKUP(C20,$I$1:$K$6,2,FALSE)</f>
         <v>Betão Armado</v>
@@ -2918,7 +2929,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="52"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="18">
         <v>3</v>
       </c>
@@ -2943,7 +2954,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="52"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="18">
         <v>0</v>
       </c>
@@ -2968,7 +2979,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="52"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="18">
         <v>0</v>
       </c>
@@ -2993,9 +3004,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="52"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="18">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C24" s="18">
         <v>4</v>
@@ -3006,7 +3017,7 @@
       </c>
       <c r="E24" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>32%</v>
+        <v>74%</v>
       </c>
       <c r="F24" s="26" t="str">
         <f t="shared" si="14"/>
@@ -3018,20 +3029,20 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="22">
-        <v>437</v>
+        <v>546</v>
       </c>
       <c r="C26" s="22">
         <v>4</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="49">
+      <c r="D26" s="44">
         <f>B26/SUM(B26:B30)</f>
-        <v>0.77619893428063946</v>
-      </c>
+        <v>0.96980461811722918</v>
+      </c>
+      <c r="E26" s="43"/>
       <c r="F26" s="25" t="str">
         <f>VLOOKUP(C26,$I$1:$K$6,2,FALSE)</f>
         <v>Betão Armado</v>
@@ -3042,7 +3053,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="52"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="18">
         <v>2</v>
       </c>
@@ -3067,7 +3078,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="52"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="18">
         <v>0</v>
       </c>
@@ -3092,7 +3103,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="52"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="18">
         <v>0</v>
       </c>
@@ -3117,9 +3128,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="52"/>
+      <c r="A30" s="50"/>
       <c r="B30" s="18">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c r="C30" s="18">
         <v>3</v>
@@ -3130,7 +3141,7 @@
       </c>
       <c r="E30" s="19" t="str">
         <f t="shared" si="20"/>
-        <v>22%</v>
+        <v>2,7%</v>
       </c>
       <c r="F30" s="26" t="str">
         <f t="shared" si="18"/>
@@ -3143,9 +3154,9 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="M1:P1"/>
     <mergeCell ref="A20:A24"/>
     <mergeCell ref="A26:A30"/>
-    <mergeCell ref="M1:O1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A14:A18"/>
@@ -3161,7 +3172,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <selection pane="topRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3217,16 +3228,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.97681607418856264</v>
+        <v>0.97990726429675423</v>
       </c>
       <c r="C2" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="D2" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="48">
-        <v>0.28571428571428581</v>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.43478260869565222</v>
       </c>
       <c r="F2" s="30">
         <f>'Matriz Confusão 2'!H3</f>
@@ -3254,13 +3265,13 @@
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="47">
+      <c r="B3" s="2">
         <v>0.99381761978361671</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="2">
         <v>0.2</v>
       </c>
       <c r="E3" s="2">
@@ -3330,17 +3341,17 @@
       <c r="A5" s="40">
         <v>3</v>
       </c>
-      <c r="B5" s="48">
-        <v>0.75734157650695522</v>
-      </c>
-      <c r="C5" s="48">
-        <v>0.20930232558139539</v>
+      <c r="B5" s="2">
+        <v>0.89644513137557957</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.35294117647058831</v>
       </c>
       <c r="D5" s="2">
-        <v>0.63157894736842102</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E5" s="2">
-        <v>0.31441048034934499</v>
+        <v>0.26373626373626369</v>
       </c>
       <c r="F5" s="30">
         <f>'Matriz Confusão 2'!H6</f>
@@ -3352,11 +3363,11 @@
       </c>
       <c r="H5" s="18" t="str" cm="1">
         <f t="array" ref="H5">_xlfn.IFS(AND(C5&lt;=1,C5&gt;=0.95),"Muito Alta",AND(C5&lt;0.95,C5&gt;=0.9),"Alta",AND(C5&lt;0.9,C5&gt;=0.7),"Boa",AND(C5&lt;0.7,C5&gt;=0.5),"Médio",AND(C5&lt;0.5,C5&gt;=0.25),"Baixo",AND(C5&lt;0.25,C5&gt;0),"Muito Baixo",C5=0,"Zero")</f>
-        <v>Muito Baixo</v>
+        <v>Baixo</v>
       </c>
       <c r="I5" s="18" t="str" cm="1">
         <f t="array" ref="I5">_xlfn.IFS(AND(D5&lt;=1,D5&gt;=0.95),"Muito Alta",AND(D5&lt;0.95,D5&gt;=0.9),"Alta",AND(D5&lt;0.9,D5&gt;=0.7),"Boa",AND(D5&lt;0.7,D5&gt;=0.5),"Médio",AND(D5&lt;0.5,D5&gt;=0.25),"Baixo",AND(D5&lt;0.25,D5&gt;0),"Muito Baixo",D5=0,"Zero")</f>
-        <v>Médio</v>
+        <v>Muito Baixo</v>
       </c>
       <c r="J5" s="18" t="str" cm="1">
         <f t="array" ref="J5">_xlfn.IFS(AND(E5&lt;=1,E5&gt;=0.95),"Muito Alta",AND(E5&lt;0.95,E5&gt;=0.9),"Alta",AND(E5&lt;0.9,E5&gt;=0.7),"Boa",AND(E5&lt;0.7,E5&gt;=0.5),"Médio",AND(E5&lt;0.5,E5&gt;=0.25),"Baixo",AND(E5&lt;0.25,E5&gt;0),"Muito Baixo",E5=0,"Zero")</f>
@@ -3369,16 +3380,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.768160741885626</v>
+        <v>0.89489953632148378</v>
       </c>
       <c r="C6" s="2">
-        <v>0.94793926247288507</v>
-      </c>
-      <c r="D6" s="47">
-        <v>0.77619893428063902</v>
-      </c>
-      <c r="E6" s="47">
-        <v>0.853515625</v>
+        <v>0.914572864321608</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.96980461811722918</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.94137931034482758</v>
       </c>
       <c r="F6" s="30">
         <f>'Matriz Confusão 2'!H7</f>
@@ -3394,11 +3405,11 @@
       </c>
       <c r="I6" s="18" t="str" cm="1">
         <f t="array" ref="I6">_xlfn.IFS(AND(D6&lt;=1,D6&gt;=0.95),"Muito Alta",AND(D6&lt;0.95,D6&gt;=0.9),"Alta",AND(D6&lt;0.9,D6&gt;=0.7),"Boa",AND(D6&lt;0.7,D6&gt;=0.5),"Médio",AND(D6&lt;0.5,D6&gt;=0.25),"Baixo",AND(D6&lt;0.25,D6&gt;0),"Muito Baixo",D6=0,"Zero")</f>
-        <v>Boa</v>
+        <v>Muito Alta</v>
       </c>
       <c r="J6" s="18" t="str" cm="1">
         <f t="array" ref="J6">_xlfn.IFS(AND(E6&lt;=1,E6&gt;=0.95),"Muito Alta",AND(E6&lt;0.95,E6&gt;=0.9),"Alta",AND(E6&lt;0.9,E6&gt;=0.7),"Boa",AND(E6&lt;0.7,E6&gt;=0.5),"Médio",AND(E6&lt;0.5,E6&gt;=0.25),"Baixo",AND(E6&lt;0.25,E6&gt;0),"Muito Baixo",E6=0,"Zero")</f>
-        <v>Boa</v>
+        <v>Alta</v>
       </c>
       <c r="K6"/>
     </row>
@@ -3408,11 +3419,11 @@
       </c>
       <c r="B7" s="5">
         <f>MIN(B2:B6)</f>
-        <v>0.75734157650695522</v>
+        <v>0.89489953632148378</v>
       </c>
       <c r="C7" s="5">
         <f>MIN(C2:C6)</f>
-        <v>0.20930232558139539</v>
+        <v>0.35294117647058831</v>
       </c>
       <c r="D7" s="5">
         <f>MIN(D2:D6)</f>
@@ -3420,7 +3431,7 @@
       </c>
       <c r="E7" s="5">
         <f>MIN(E2:E6)</f>
-        <v>0.28571428571428581</v>
+        <v>0.26373626373626369</v>
       </c>
       <c r="G7" s="9">
         <f>COUNTIF(G2:G6,$K$7)</f>
@@ -3432,7 +3443,7 @@
       </c>
       <c r="I7" s="9">
         <f>COUNTIF(I2:I6,$K$7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="9">
         <f>COUNTIF(J2:J6,$K$7)</f>
@@ -3456,11 +3467,11 @@
       </c>
       <c r="D8" s="6">
         <f>MAX(D2:D6)</f>
-        <v>0.77619893428063902</v>
+        <v>0.96980461811722918</v>
       </c>
       <c r="E8" s="6">
         <f>MAX(E2:E6)</f>
-        <v>0.853515625</v>
+        <v>0.94137931034482758</v>
       </c>
       <c r="G8" s="9">
         <f>COUNTIF(G2:G6,$K$8)</f>
@@ -3476,7 +3487,7 @@
       </c>
       <c r="J8" s="9">
         <f>COUNTIF(J2:J6,$K$8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="33" t="s">
         <v>14</v>
@@ -3512,11 +3523,11 @@
       </c>
       <c r="I9" s="9">
         <f>COUNTIF(I2:I6,$K$9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="9">
         <f>COUNTIF(J2:J6,$K$9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="33" t="s">
         <v>19</v>
@@ -3552,7 +3563,7 @@
       </c>
       <c r="I10" s="9">
         <f>COUNTIF(I2:I6,$K$10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="9">
         <f>COUNTIF(J2:J6,$K$10)</f>
@@ -3568,7 +3579,7 @@
       </c>
       <c r="B11" s="5">
         <f>INDEX($A$2:$A$6,MATCH(B7,B2:B6,0))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="5">
         <f>INDEX($A$2:$A$6,MATCH(C7,C2:C6,0))</f>
@@ -3580,7 +3591,7 @@
       </c>
       <c r="E11" s="5">
         <f>INDEX($A$2:$A$6,MATCH(E7,E2:E6,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" s="9">
         <f>COUNTIF(G2:G6,$K$11)</f>
@@ -3588,7 +3599,7 @@
       </c>
       <c r="H11" s="9">
         <f>COUNTIF(H2:H6,$K$11)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="9">
         <f>COUNTIF(I2:I6,$K$11)</f>
@@ -3629,11 +3640,11 @@
       </c>
       <c r="H12" s="9">
         <f>COUNTIF(H2:H6,$K$12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="9">
         <f>COUNTIF(I2:I6,$K$12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="9">
         <f>COUNTIF(J2:J6,$K$12)</f>
@@ -3678,9 +3689,7 @@
   <sheetPr codeName="Folha8"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>

--- a/Resultados/Material + Ano/ResNet/Tentativa 1/Com Tentativa 1 - Material.xlsx
+++ b/Resultados/Material + Ano/ResNet/Tentativa 1/Com Tentativa 1 - Material.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano\ResNet\Tentativa 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5E860C-E7DE-44EB-BEFF-BC3EA6A10431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44328EE7-FB89-44B6-9C00-2026E9C842C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -311,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -345,19 +345,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -424,7 +411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -456,64 +443,64 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,9 +511,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -541,7 +528,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -561,94 +547,6 @@
     <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -736,6 +634,102 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -856,7 +850,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BF69358-A5F6-2099-AC39-1410672353D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC6428B-AB7F-74A2-CC12-F19BA094D3D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -897,13 +891,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>-1</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -911,7 +905,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F18A19-C3FE-9035-DF86-E35C64B5E539}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450D0A72-2D1C-B865-A6AA-9AC4CD712657}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -933,7 +927,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="0" y="190500"/>
           <a:ext cx="7772400" cy="6476999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -966,7 +960,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE046583-F4BB-9824-117C-CCC286F4BD3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C193B713-96FE-183E-44E4-A463A6195214}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1021,7 +1015,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58C81464-112E-4EA7-D6C9-AF5C4818E5B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB1389C-FBF6-3CD1-29AC-D65D997AEBAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1076,7 +1070,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72BAA5DE-323B-9EA0-F37A-5A8F11395509}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{734A4863-CBF1-E842-B0C4-7D9346257A7D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1131,7 +1125,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14EF1E16-2335-703C-1CD7-89CAEA4884C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270818DE-B51F-608D-1084-11BC54785634}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1186,7 +1180,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A59419E-54C7-6617-1151-860DB3C6EEC6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ACC4CA9-F208-3C1E-DB3E-40435216567C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1226,23 +1220,23 @@
   <autoFilter ref="A1:J6" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="4">
       <calculatedColumnFormula>'Matriz Confusão 2'!H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="3">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="1">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1571,7 +1565,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1602,16 +1596,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>18.103298187255859</v>
+        <v>18.380142211914059</v>
       </c>
       <c r="C2" s="2">
-        <v>0.78614282608032227</v>
+        <v>0.78652989864349365</v>
       </c>
       <c r="D2" s="2">
-        <v>10.918642044067379</v>
+        <v>13.64456272125244</v>
       </c>
       <c r="E2" s="2">
-        <v>0.81550389528274536</v>
+        <v>0.78914725780487061</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1619,16 +1613,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>11.95698356628418</v>
+        <v>14.667179107666019</v>
       </c>
       <c r="C3" s="2">
-        <v>0.83859103918075562</v>
+        <v>0.82310819625854492</v>
       </c>
       <c r="D3" s="2">
-        <v>13.050765037536619</v>
+        <v>18.815374374389648</v>
       </c>
       <c r="E3" s="2">
-        <v>0.85271316766738892</v>
+        <v>0.84961241483688354</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1636,16 +1630,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>16.075151443481449</v>
+        <v>12.65136051177979</v>
       </c>
       <c r="C4" s="2">
-        <v>0.83201086521148682</v>
+        <v>0.84594541788101196</v>
       </c>
       <c r="D4" s="2">
-        <v>27.576784133911129</v>
+        <v>23.831722259521481</v>
       </c>
       <c r="E4" s="2">
-        <v>0.85891473293304443</v>
+        <v>0.86046510934829712</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1653,16 +1647,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>7.9112949371337891</v>
+        <v>6.581812858581543</v>
       </c>
       <c r="C5" s="2">
-        <v>0.89045870304107666</v>
+        <v>0.89916777610778809</v>
       </c>
       <c r="D5" s="2">
-        <v>21.313421249389648</v>
+        <v>21.253793716430661</v>
       </c>
       <c r="E5" s="2">
-        <v>0.86821705102920532</v>
+        <v>0.8620154857635498</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1670,16 +1664,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>2.2892951965332031</v>
+        <v>2.2832961082458501</v>
       </c>
       <c r="C6" s="2">
-        <v>0.93497192859649658</v>
+        <v>0.93942326307296753</v>
       </c>
       <c r="D6" s="2">
-        <v>22.55461502075195</v>
+        <v>21.649833679199219</v>
       </c>
       <c r="E6" s="2">
-        <v>0.87441861629486084</v>
+        <v>0.87286823987960815</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1687,16 +1681,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>1.056615352630615</v>
+        <v>1.7801059484481809</v>
       </c>
       <c r="C7" s="2">
-        <v>0.95800268650054932</v>
+        <v>0.9431004524230957</v>
       </c>
       <c r="D7" s="2">
-        <v>28.505952835083011</v>
+        <v>22.903043746948239</v>
       </c>
       <c r="E7" s="2">
-        <v>0.86976742744445801</v>
+        <v>0.87131780385971069</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1704,16 +1698,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>1.4434182643890381</v>
+        <v>1.6862820386886599</v>
       </c>
       <c r="C8" s="2">
-        <v>0.96226048469543457</v>
+        <v>0.9520031213760376</v>
       </c>
       <c r="D8" s="2">
-        <v>20.064155578613281</v>
+        <v>18.498165130615231</v>
       </c>
       <c r="E8" s="2">
-        <v>0.86976742744445801</v>
+        <v>0.87286823987960815</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1721,16 +1715,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2.2330248355865479</v>
+        <v>2.0954782962799068</v>
       </c>
       <c r="C9" s="2">
-        <v>0.94522935152053833</v>
+        <v>0.94155216217041016</v>
       </c>
       <c r="D9" s="2">
-        <v>12.99958324432373</v>
+        <v>17.479547500610352</v>
       </c>
       <c r="E9" s="2">
-        <v>0.86821705102920532</v>
+        <v>0.87131780385971069</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1738,16 +1732,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>1.6425919532775879</v>
+        <v>2.2044367790222168</v>
       </c>
       <c r="C10" s="2">
-        <v>0.95219665765762329</v>
+        <v>0.93768143653869629</v>
       </c>
       <c r="D10" s="2">
-        <v>15.149733543396</v>
+        <v>19.082828521728519</v>
       </c>
       <c r="E10" s="2">
-        <v>0.75038760900497437</v>
+        <v>0.87751936912536621</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1755,39 +1749,39 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>1.526310920715332</v>
+        <v>1.996468782424927</v>
       </c>
       <c r="C11" s="2">
-        <v>0.96361523866653442</v>
+        <v>0.95297080278396606</v>
       </c>
       <c r="D11" s="2">
-        <v>12.58585739135742</v>
+        <v>13.38776683807373</v>
       </c>
       <c r="E11" s="2">
-        <v>0.85271316766738892</v>
+        <v>0.85581398010253906</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="48">
-        <v>10.602006912231399</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="47">
+        <v>10.4380187988281</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="48">
-        <v>0.87789797782897905</v>
-      </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="B13" s="47">
+        <v>0.87171560525894098</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1795,19 +1789,19 @@
       </c>
       <c r="B14" s="5">
         <f>MIN(B2:B11)</f>
-        <v>1.056615352630615</v>
+        <v>1.6862820386886599</v>
       </c>
       <c r="C14" s="5">
         <f>MIN(C2:C11)</f>
-        <v>0.78614282608032227</v>
+        <v>0.78652989864349365</v>
       </c>
       <c r="D14" s="5">
         <f>MIN(D2:D11)</f>
-        <v>10.918642044067379</v>
+        <v>13.38776683807373</v>
       </c>
       <c r="E14" s="5">
         <f>MIN(E2:E11)</f>
-        <v>0.75038760900497437</v>
+        <v>0.78914725780487061</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1816,19 +1810,19 @@
       </c>
       <c r="B15" s="6">
         <f>MAX(B2:B11)</f>
-        <v>18.103298187255859</v>
+        <v>18.380142211914059</v>
       </c>
       <c r="C15" s="6">
         <f>MAX(C2:C11)</f>
-        <v>0.96361523866653442</v>
+        <v>0.95297080278396606</v>
       </c>
       <c r="D15" s="6">
         <f>MAX(D2:D11)</f>
-        <v>28.505952835083011</v>
+        <v>23.831722259521481</v>
       </c>
       <c r="E15" s="6">
         <f>MAX(E2:E11)</f>
-        <v>0.87441861629486084</v>
+        <v>0.87751936912536621</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1837,7 +1831,7 @@
       </c>
       <c r="B16">
         <f>INDEX($A$2:$A$11,MATCH(B14,B2:B11,0))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <f>INDEX($A$2:$A$11,MATCH(C14,C2:C11,0))</f>
@@ -1845,11 +1839,11 @@
       </c>
       <c r="D16">
         <f>INDEX($A$2:$A$11,MATCH(D14,D2:D11,0))</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E16">
         <f>INDEX($A$2:$A$11,MATCH(E14,E2:E11,0))</f>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1866,11 +1860,11 @@
       </c>
       <c r="D17">
         <f>INDEX($A$2:$A$11,MATCH(D15,D2:D11,0))</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <f>INDEX($A$2:$A$11,MATCH(E15,E2:E11,0))</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1926,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="18">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="14:15" x14ac:dyDescent="0.35">
@@ -1934,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="18">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4" spans="14:15" x14ac:dyDescent="0.35">
@@ -1950,7 +1944,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="42">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="14:15" x14ac:dyDescent="0.35">
@@ -1958,7 +1952,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="42">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="7" spans="14:15" x14ac:dyDescent="0.35">
@@ -2139,7 +2133,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2155,7 +2149,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H8"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2165,13 +2159,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C2" s="37">
@@ -2191,7 +2185,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="str">
+      <c r="A3" s="49" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
@@ -2199,7 +2193,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -2208,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" s="2">
         <v>2</v>
@@ -2217,12 +2211,12 @@
         <f>SUM(C3:G3)</f>
         <v>12</v>
       </c>
-      <c r="J3" s="47">
+      <c r="J3" s="46">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="41">
         <v>1</v>
       </c>
@@ -2245,23 +2239,23 @@
         <f t="shared" ref="H4:H7" si="0">SUM(C4:G4)</f>
         <v>5</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="50"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="41">
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
@@ -2273,17 +2267,17 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J5" s="47">
+      <c r="J5" s="46">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="41">
         <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -2292,26 +2286,26 @@
         <v>0</v>
       </c>
       <c r="F6" s="38">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G6" s="2">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="J6" s="47">
+      <c r="J6" s="46">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="50"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="41">
         <v>4</v>
       </c>
       <c r="C7" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -2320,23 +2314,23 @@
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G7" s="38">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
         <v>563</v>
       </c>
-      <c r="J7" s="47">
+      <c r="J7" s="46">
         <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C8">
         <f>SUM(C3:C7)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:G8" si="1">SUM(D3:D7)</f>
@@ -2344,15 +2338,15 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="H8">
         <f>SUM(H3:H7)</f>
@@ -2377,7 +2371,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2424,26 +2418,26 @@
       <c r="K1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
     </row>
     <row r="2" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
       </c>
       <c r="D2" s="23">
         <f>B2/SUM(B2:B6)</f>
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="43"/>
       <c r="F2" s="25" t="str">
@@ -2460,7 +2454,7 @@
       <c r="K2" s="21"/>
       <c r="M2" s="18">
         <f>B2+B8+B14+B20+B26</f>
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="N2" s="21" t="s">
         <v>28</v>
@@ -2470,11 +2464,11 @@
       </c>
       <c r="P2" s="28">
         <f>M2/O2</f>
-        <v>0.87789799072642971</v>
+        <v>0.87171561051004631</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="18">
         <v>0</v>
       </c>
@@ -2515,11 +2509,11 @@
       </c>
       <c r="O3" s="45">
         <f>M3/$M$6</f>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="18">
         <v>0</v>
       </c>
@@ -2560,13 +2554,13 @@
       </c>
       <c r="O4" s="45">
         <f t="shared" ref="O4:O5" si="4">M4/$M$6</f>
-        <v>0.2</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="50"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="18">
         <v>3</v>
@@ -2577,7 +2571,7 @@
       </c>
       <c r="E5" s="19" t="str">
         <f t="shared" si="3"/>
-        <v>42%</v>
+        <v>33%</v>
       </c>
       <c r="F5" s="26" t="str">
         <f t="shared" si="0"/>
@@ -2598,18 +2592,18 @@
       </c>
       <c r="M5" s="18">
         <f>COUNTIFS(D2:D30,N5,B2:B30,"&lt;&gt;0")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N5" s="18" t="s">
         <v>44</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="4"/>
-        <v>0.6</v>
+        <v>0.63636363636363635</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="18">
         <v>2</v>
       </c>
@@ -2643,7 +2637,7 @@
       </c>
       <c r="M6" s="9">
         <f>SUM(M3:M5)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N6" s="9"/>
     </row>
@@ -2657,7 +2651,7 @@
       <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="49" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="22">
@@ -2681,7 +2675,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="18">
         <v>1</v>
       </c>
@@ -2706,7 +2700,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="18">
         <v>0</v>
       </c>
@@ -2731,7 +2725,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="18">
         <v>2</v>
       </c>
@@ -2756,7 +2750,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="18">
         <v>1</v>
       </c>
@@ -2781,18 +2775,18 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="49" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" s="22">
         <v>2</v>
       </c>
       <c r="D14" s="23">
         <f>B14/SUM(B14:B18)</f>
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="25" t="str">
@@ -2805,9 +2799,9 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="18">
         <v>0</v>
@@ -2818,7 +2812,7 @@
       </c>
       <c r="E15" s="19" t="str">
         <f>ROUND(B15/SUM($B$14:$B$18)*100,0) &amp;"%"</f>
-        <v>0%</v>
+        <v>10%</v>
       </c>
       <c r="F15" s="26" t="str">
         <f t="shared" ref="F15:F18" si="10">VLOOKUP(C15,$I$1:$K$6,2,FALSE)</f>
@@ -2830,7 +2824,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="50"/>
+      <c r="A16" s="49"/>
       <c r="B16" s="18">
         <v>0</v>
       </c>
@@ -2855,7 +2849,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="50"/>
+      <c r="A17" s="49"/>
       <c r="B17" s="18">
         <v>0</v>
       </c>
@@ -2880,7 +2874,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="50"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="18">
         <v>6</v>
       </c>
@@ -2905,18 +2899,18 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="49" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="22">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C20" s="22">
         <v>3</v>
       </c>
       <c r="D20" s="23">
         <f>B20/SUM(B20:B24)</f>
-        <v>0.21052631578947367</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="25" t="str">
@@ -2929,9 +2923,9 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="50"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="18">
         <v>0</v>
@@ -2942,7 +2936,7 @@
       </c>
       <c r="E21" s="19" t="str">
         <f>ROUND(B21/SUM($B$20:$B$24)*100,0) &amp;"%"</f>
-        <v>5%</v>
+        <v>7%</v>
       </c>
       <c r="F21" s="26" t="str">
         <f t="shared" ref="F21:F24" si="14">VLOOKUP(C21,$I$1:$K$6,2,FALSE)</f>
@@ -2954,7 +2948,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="50"/>
+      <c r="A22" s="49"/>
       <c r="B22" s="18">
         <v>0</v>
       </c>
@@ -2979,7 +2973,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="50"/>
+      <c r="A23" s="49"/>
       <c r="B23" s="18">
         <v>0</v>
       </c>
@@ -3004,9 +2998,9 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="50"/>
+      <c r="A24" s="49"/>
       <c r="B24" s="18">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C24" s="18">
         <v>4</v>
@@ -3017,7 +3011,7 @@
       </c>
       <c r="E24" s="19" t="str">
         <f t="shared" si="16"/>
-        <v>74%</v>
+        <v>67%</v>
       </c>
       <c r="F24" s="26" t="str">
         <f t="shared" si="14"/>
@@ -3029,18 +3023,18 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="49" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="22">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C26" s="22">
         <v>4</v>
       </c>
       <c r="D26" s="44">
         <f>B26/SUM(B26:B30)</f>
-        <v>0.96980461811722918</v>
+        <v>0.95737122557726462</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="25" t="str">
@@ -3053,9 +3047,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="50"/>
+      <c r="A27" s="49"/>
       <c r="B27" s="18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C27" s="18">
         <v>0</v>
@@ -3066,7 +3060,7 @@
       </c>
       <c r="E27" s="19" t="str">
         <f>ROUND(B27/SUM($B$26:$B$30)*100,1) &amp;"%"</f>
-        <v>0,4%</v>
+        <v>0,7%</v>
       </c>
       <c r="F27" s="26" t="str">
         <f t="shared" ref="F27:F30" si="18">VLOOKUP(C27,$I$1:$K$6,2,FALSE)</f>
@@ -3078,7 +3072,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="50"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="18">
         <v>0</v>
       </c>
@@ -3103,7 +3097,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="50"/>
+      <c r="A29" s="49"/>
       <c r="B29" s="18">
         <v>0</v>
       </c>
@@ -3128,9 +3122,9 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="50"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="18">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C30" s="18">
         <v>3</v>
@@ -3141,7 +3135,7 @@
       </c>
       <c r="E30" s="19" t="str">
         <f t="shared" si="20"/>
-        <v>2,7%</v>
+        <v>3,6%</v>
       </c>
       <c r="F30" s="26" t="str">
         <f t="shared" si="18"/>
@@ -3172,7 +3166,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K4" sqref="K4"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3228,16 +3222,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.97990726429675423</v>
+        <v>0.97527047913446674</v>
       </c>
       <c r="C2" s="2">
-        <v>0.45454545454545447</v>
+        <v>0.375</v>
       </c>
       <c r="D2" s="2">
-        <v>0.41666666666666669</v>
+        <v>0.5</v>
       </c>
       <c r="E2" s="2">
-        <v>0.43478260869565222</v>
+        <v>0.42857142857142849</v>
       </c>
       <c r="F2" s="30">
         <f>'Matriz Confusão 2'!H3</f>
@@ -3253,7 +3247,7 @@
       </c>
       <c r="I2" s="10" t="str" cm="1">
         <f t="array" ref="I2">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</f>
-        <v>Baixo</v>
+        <v>Médio</v>
       </c>
       <c r="J2" s="16" t="str" cm="1">
         <f t="array" ref="J2">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</f>
@@ -3303,17 +3297,17 @@
       <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="46">
-        <v>0.99072642967542501</v>
-      </c>
-      <c r="C4" s="46">
+      <c r="B4" s="2">
+        <v>0.98918083462132922</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
-        <v>0.4</v>
-      </c>
-      <c r="E4" s="46">
-        <v>0.57142857142857151</v>
+      <c r="D4" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.46153846153846151</v>
       </c>
       <c r="F4" s="30">
         <f>'Matriz Confusão 2'!H5</f>
@@ -3333,7 +3327,7 @@
       </c>
       <c r="J4" s="16" t="str" cm="1">
         <f t="array" ref="J4">_xlfn.IFS(AND(E4&lt;=1,E4&gt;=0.95),"Muito Alta",AND(E4&lt;0.95,E4&gt;=0.9),"Alta",AND(E4&lt;0.9,E4&gt;=0.7),"Boa",AND(E4&lt;0.7,E4&gt;=0.5),"Médio",AND(E4&lt;0.5,E4&gt;=0.25),"Baixo",AND(E4&lt;0.25,E4&gt;0),"Muito Baixo",E4=0,"Zero")</f>
-        <v>Médio</v>
+        <v>Baixo</v>
       </c>
       <c r="K4"/>
     </row>
@@ -3342,16 +3336,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>0.89644513137557957</v>
+        <v>0.89489953632148378</v>
       </c>
       <c r="C5" s="2">
-        <v>0.35294117647058831</v>
+        <v>0.36585365853658541</v>
       </c>
       <c r="D5" s="2">
-        <v>0.2105263157894737</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="E5" s="2">
-        <v>0.26373626373626369</v>
+        <v>0.30612244897959179</v>
       </c>
       <c r="F5" s="30">
         <f>'Matriz Confusão 2'!H6</f>
@@ -3367,7 +3361,7 @@
       </c>
       <c r="I5" s="18" t="str" cm="1">
         <f t="array" ref="I5">_xlfn.IFS(AND(D5&lt;=1,D5&gt;=0.95),"Muito Alta",AND(D5&lt;0.95,D5&gt;=0.9),"Alta",AND(D5&lt;0.9,D5&gt;=0.7),"Boa",AND(D5&lt;0.7,D5&gt;=0.5),"Médio",AND(D5&lt;0.5,D5&gt;=0.25),"Baixo",AND(D5&lt;0.25,D5&gt;0),"Muito Baixo",D5=0,"Zero")</f>
-        <v>Muito Baixo</v>
+        <v>Baixo</v>
       </c>
       <c r="J5" s="18" t="str" cm="1">
         <f t="array" ref="J5">_xlfn.IFS(AND(E5&lt;=1,E5&gt;=0.95),"Muito Alta",AND(E5&lt;0.95,E5&gt;=0.9),"Alta",AND(E5&lt;0.9,E5&gt;=0.7),"Boa",AND(E5&lt;0.7,E5&gt;=0.5),"Médio",AND(E5&lt;0.5,E5&gt;=0.25),"Baixo",AND(E5&lt;0.25,E5&gt;0),"Muito Baixo",E5=0,"Zero")</f>
@@ -3380,16 +3374,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.89489953632148378</v>
+        <v>0.89026275115919629</v>
       </c>
       <c r="C6" s="2">
-        <v>0.914572864321608</v>
+        <v>0.91979522184300344</v>
       </c>
       <c r="D6" s="2">
-        <v>0.96980461811722918</v>
+        <v>0.95737122557726462</v>
       </c>
       <c r="E6" s="2">
-        <v>0.94137931034482758</v>
+        <v>0.93820713664055699</v>
       </c>
       <c r="F6" s="30">
         <f>'Matriz Confusão 2'!H7</f>
@@ -3419,11 +3413,11 @@
       </c>
       <c r="B7" s="5">
         <f>MIN(B2:B6)</f>
-        <v>0.89489953632148378</v>
+        <v>0.89026275115919629</v>
       </c>
       <c r="C7" s="5">
         <f>MIN(C2:C6)</f>
-        <v>0.35294117647058831</v>
+        <v>0.36585365853658541</v>
       </c>
       <c r="D7" s="5">
         <f>MIN(D2:D6)</f>
@@ -3431,7 +3425,7 @@
       </c>
       <c r="E7" s="5">
         <f>MIN(E2:E6)</f>
-        <v>0.26373626373626369</v>
+        <v>0.30612244897959179</v>
       </c>
       <c r="G7" s="9">
         <f>COUNTIF(G2:G6,$K$7)</f>
@@ -3467,11 +3461,11 @@
       </c>
       <c r="D8" s="6">
         <f>MAX(D2:D6)</f>
-        <v>0.96980461811722918</v>
+        <v>0.95737122557726462</v>
       </c>
       <c r="E8" s="6">
         <f>MAX(E2:E6)</f>
-        <v>0.94137931034482758</v>
+        <v>0.93820713664055699</v>
       </c>
       <c r="G8" s="9">
         <f>COUNTIF(G2:G6,$K$8)</f>
@@ -3563,11 +3557,11 @@
       </c>
       <c r="I10" s="9">
         <f>COUNTIF(I2:I6,$K$10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="9">
         <f>COUNTIF(J2:J6,$K$10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="33" t="s">
         <v>15</v>
@@ -3607,7 +3601,7 @@
       </c>
       <c r="J11" s="9">
         <f>COUNTIF(J2:J6,$K$11)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11" s="33" t="s">
         <v>18</v>
@@ -3644,7 +3638,7 @@
       </c>
       <c r="I12" s="9">
         <f>COUNTIF(I2:I6,$K$12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="9">
         <f>COUNTIF(J2:J6,$K$12)</f>

--- a/Resultados/Material + Ano/ResNet/Tentativa 1/Com Tentativa 1 - Material.xlsx
+++ b/Resultados/Material + Ano/ResNet/Tentativa 1/Com Tentativa 1 - Material.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano\ResNet\Tentativa 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44328EE7-FB89-44B6-9C00-2026E9C842C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A947FBA-DD61-49E4-8BCD-22026092C4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -1565,7 +1565,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2371,7 +2371,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2380,7 +2380,7 @@
     <col min="2" max="2" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.90625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.54296875" customWidth="1"/>
@@ -2389,7 +2389,7 @@
     <col min="11" max="11" width="13.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7265625" style="9"/>
     <col min="13" max="13" width="3.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" style="19" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.36328125" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="8.7265625" style="9"/>
   </cols>
@@ -3166,25 +3166,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K5" sqref="K5"/>
+      <selection pane="topRight" activeCell="J15" sqref="I14:J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" style="31" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="105.1796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="33" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -3255,7 +3255,7 @@
       </c>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="39">
         <v>2</v>
       </c>
@@ -3331,7 +3331,7 @@
       </c>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="40">
         <v>3</v>
       </c>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="K5"/>
     </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="40">
         <v>4</v>
       </c>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="K6"/>
     </row>
-    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>0</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>8</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>9</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="G13">
         <f>SUM(G7:G12)+B9</f>
